--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,243 +534,243 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="H2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="I2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="J2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>291.6172387897211</v>
+        <v>296.7285723037481</v>
       </c>
       <c r="R2">
-        <v>291.6172387897211</v>
+        <v>2670.557150733733</v>
       </c>
       <c r="S2">
-        <v>0.03390557330535436</v>
+        <v>0.03107469027408693</v>
       </c>
       <c r="T2">
-        <v>0.03390557330535436</v>
+        <v>0.03107469027408694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.7205939642397</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="H3">
-        <v>91.7205939642397</v>
+        <v>67.034347</v>
       </c>
       <c r="I3">
-        <v>0.1391969988304138</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="J3">
-        <v>0.1391969988304138</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>1197.214513412489</v>
+        <v>2.276650285857111</v>
       </c>
       <c r="R3">
-        <v>1197.214513412489</v>
+        <v>20.489852572714</v>
       </c>
       <c r="S3">
-        <v>0.1391969988304138</v>
+        <v>0.0002384205941010675</v>
       </c>
       <c r="T3">
-        <v>0.1391969988304138</v>
+        <v>0.0002384205941010675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>243.844013415007</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="H4">
-        <v>243.844013415007</v>
+        <v>67.034347</v>
       </c>
       <c r="I4">
-        <v>0.3700625277608395</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="J4">
-        <v>0.3700625277608395</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>3182.857625006398</v>
+        <v>1.405605980939111</v>
       </c>
       <c r="R4">
-        <v>3182.857625006398</v>
+        <v>12.650453828452</v>
       </c>
       <c r="S4">
-        <v>0.3700625277608395</v>
+        <v>0.0001472010941378943</v>
       </c>
       <c r="T4">
-        <v>0.3700625277608395</v>
+        <v>0.0001472010941378944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>242.803187262864</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="H5">
-        <v>242.803187262864</v>
+        <v>67.034347</v>
       </c>
       <c r="I5">
-        <v>0.3684829492777456</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="J5">
-        <v>0.3684829492777456</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.0528430057841</v>
+        <v>0.084843</v>
       </c>
       <c r="N5">
-        <v>13.0528430057841</v>
+        <v>0.254529</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.006271110847647699</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.0062711108476477</v>
       </c>
       <c r="Q5">
-        <v>3169.271884646161</v>
+        <v>1.895798367507</v>
       </c>
       <c r="R5">
-        <v>3169.271884646161</v>
+        <v>17.062185307563</v>
       </c>
       <c r="S5">
-        <v>0.3684829492777456</v>
+        <v>0.0001985361457948669</v>
       </c>
       <c r="T5">
-        <v>0.3684829492777456</v>
+        <v>0.000198536145794867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,982 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.2174434486227</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="H6">
-        <v>58.2174434486227</v>
+        <v>277.341392</v>
       </c>
       <c r="I6">
-        <v>0.08835195082564674</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="J6">
-        <v>0.08835195082564674</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N6">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q6">
-        <v>759.9031495329862</v>
+        <v>1227.655955071721</v>
       </c>
       <c r="R6">
-        <v>759.9031495329862</v>
+        <v>11048.90359564549</v>
       </c>
       <c r="S6">
-        <v>0.08835195082564674</v>
+        <v>0.1285654032936896</v>
       </c>
       <c r="T6">
-        <v>0.08835195082564674</v>
+        <v>0.1285654032936896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="H7">
+        <v>277.341392</v>
+      </c>
+      <c r="I7">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="J7">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>9.419191617944888</v>
+      </c>
+      <c r="R7">
+        <v>84.77272456150399</v>
+      </c>
+      <c r="S7">
+        <v>0.0009864181931906798</v>
+      </c>
+      <c r="T7">
+        <v>0.0009864181931906796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="H8">
+        <v>277.341392</v>
+      </c>
+      <c r="I8">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="J8">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>5.815417570296888</v>
+      </c>
+      <c r="R8">
+        <v>52.338758132672</v>
+      </c>
+      <c r="S8">
+        <v>0.0006090154999514899</v>
+      </c>
+      <c r="T8">
+        <v>0.0006090154999514899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="H9">
+        <v>277.341392</v>
+      </c>
+      <c r="I9">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="J9">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>7.843491907152</v>
+      </c>
+      <c r="R9">
+        <v>70.591427164368</v>
+      </c>
+      <c r="S9">
+        <v>0.0008214041532628542</v>
+      </c>
+      <c r="T9">
+        <v>0.0008214041532628541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>243.96462</v>
+      </c>
+      <c r="H10">
+        <v>731.89386</v>
+      </c>
+      <c r="I10">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="J10">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>3239.73947498406</v>
+      </c>
+      <c r="R10">
+        <v>29157.65527485654</v>
+      </c>
+      <c r="S10">
+        <v>0.3392794295886248</v>
+      </c>
+      <c r="T10">
+        <v>0.3392794295886248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>243.96462</v>
+      </c>
+      <c r="H11">
+        <v>731.89386</v>
+      </c>
+      <c r="I11">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="J11">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>24.85690455948</v>
+      </c>
+      <c r="R11">
+        <v>223.71214103532</v>
+      </c>
+      <c r="S11">
+        <v>0.002603121783525743</v>
+      </c>
+      <c r="T11">
+        <v>0.002603121783525743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>243.96462</v>
+      </c>
+      <c r="H12">
+        <v>731.89386</v>
+      </c>
+      <c r="I12">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="J12">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>15.34667574264</v>
+      </c>
+      <c r="R12">
+        <v>138.12008168376</v>
+      </c>
+      <c r="S12">
+        <v>0.001607169783943847</v>
+      </c>
+      <c r="T12">
+        <v>0.001607169783943847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>243.96462</v>
+      </c>
+      <c r="H13">
+        <v>731.89386</v>
+      </c>
+      <c r="I13">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="J13">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>20.69869025466</v>
+      </c>
+      <c r="R13">
+        <v>186.28821229194</v>
+      </c>
+      <c r="S13">
+        <v>0.002167655725733077</v>
+      </c>
+      <c r="T13">
+        <v>0.002167655725733077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="H14">
+        <v>844.751129</v>
+      </c>
+      <c r="I14">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="J14">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>3739.303919230381</v>
+      </c>
+      <c r="R14">
+        <v>33653.73527307343</v>
+      </c>
+      <c r="S14">
+        <v>0.3915959633702445</v>
+      </c>
+      <c r="T14">
+        <v>0.3915959633702445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="H15">
+        <v>844.751129</v>
+      </c>
+      <c r="I15">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="J15">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>28.68981328804422</v>
+      </c>
+      <c r="R15">
+        <v>258.208319592398</v>
+      </c>
+      <c r="S15">
+        <v>0.003004520444477926</v>
+      </c>
+      <c r="T15">
+        <v>0.003004520444477926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="H16">
+        <v>844.751129</v>
+      </c>
+      <c r="I16">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="J16">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>17.71311711781822</v>
+      </c>
+      <c r="R16">
+        <v>159.418054060364</v>
+      </c>
+      <c r="S16">
+        <v>0.001854993686490621</v>
+      </c>
+      <c r="T16">
+        <v>0.001854993686490621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="H17">
+        <v>844.751129</v>
+      </c>
+      <c r="I17">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="J17">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>23.890406679249</v>
+      </c>
+      <c r="R17">
+        <v>215.013660113241</v>
+      </c>
+      <c r="S17">
+        <v>0.002501905975268506</v>
+      </c>
+      <c r="T17">
+        <v>0.002501905975268506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="H18">
+        <v>196.376177</v>
+      </c>
+      <c r="I18">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="J18">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>869.2621804114559</v>
+      </c>
+      <c r="R18">
+        <v>7823.359623703103</v>
+      </c>
+      <c r="S18">
+        <v>0.09103286823222541</v>
+      </c>
+      <c r="T18">
+        <v>0.09103286823222541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="H19">
+        <v>196.376177</v>
+      </c>
+      <c r="I19">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="J19">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>6.669415001574889</v>
+      </c>
+      <c r="R19">
+        <v>60.024735014174</v>
+      </c>
+      <c r="S19">
+        <v>0.0006984497781060864</v>
+      </c>
+      <c r="T19">
+        <v>0.0006984497781060864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="H20">
+        <v>196.376177</v>
+      </c>
+      <c r="I20">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="J20">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>4.117702957636888</v>
+      </c>
+      <c r="R20">
+        <v>37.059326618732</v>
+      </c>
+      <c r="S20">
+        <v>0.0004312235355558368</v>
+      </c>
+      <c r="T20">
+        <v>0.0004312235355558368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="H21">
+        <v>196.376177</v>
+      </c>
+      <c r="I21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="J21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>5.553714661737</v>
+      </c>
+      <c r="R21">
+        <v>49.983431955633</v>
+      </c>
+      <c r="S21">
+        <v>0.0005816088475883953</v>
+      </c>
+      <c r="T21">
+        <v>0.0005816088475883953</v>
       </c>
     </row>
   </sheetData>
